--- a/xlsx/水球_intext.xlsx
+++ b/xlsx/水球_intext.xlsx
@@ -29,7 +29,7 @@
     <t>水气球</t>
   </si>
   <si>
-    <t>政策_政策_美國_水球</t>
+    <t>政策_政策_美国_水球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FINA</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/1900%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>1900年夏季奧林匹克運動會</t>
+    <t>1900年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%B3%B3</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%88%E9%96%80%E5%93%A1</t>
   </si>
   <si>
-    <t>守門員</t>
+    <t>守门员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>球場</t>
+    <t>球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%81%E5%88%A4</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E6%B3%B3%E8%A4%B2</t>
   </si>
   <si>
-    <t>三角泳褲</t>
+    <t>三角泳裤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2000年夏季奧林匹克運動會</t>
+    <t>2000年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9C%B0%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅地亞</t>
+    <t>克罗地亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>

--- a/xlsx/水球_intext.xlsx
+++ b/xlsx/水球_intext.xlsx
@@ -29,7 +29,7 @@
     <t>水气球</t>
   </si>
   <si>
-    <t>政策_政策_美國_水球</t>
+    <t>体育运动_体育运动_水球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FINA</t>
@@ -606,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -664,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -693,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -838,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -896,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -925,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -983,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1012,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1070,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1099,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1128,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1157,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1244,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1302,7 +1302,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1331,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1360,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1389,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1418,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1447,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
